--- a/static/data/test_data.xlsx
+++ b/static/data/test_data.xlsx
@@ -727,297 +727,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/static/data/test_data.xlsx
+++ b/static/data/test_data.xlsx
@@ -727,297 +727,297 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
